--- a/M_results.xlsx
+++ b/M_results.xlsx
@@ -509,7 +509,7 @@
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>2918.207402066929</v>
+        <v>3433.634747468903</v>
       </c>
       <c r="H2" t="n">
         <v>18366.90918786444</v>
@@ -545,7 +545,7 @@
         <v>15871.23797097186</v>
       </c>
       <c r="G3" t="n">
-        <v>2643.164600776073</v>
+        <v>2645.466439439495</v>
       </c>
       <c r="H3" t="n">
         <v>15871.19617185172</v>
@@ -581,7 +581,7 @@
         <v>22988.18357483107</v>
       </c>
       <c r="G4" t="n">
-        <v>10904.14251352184</v>
+        <v>10878.46756592403</v>
       </c>
       <c r="H4" t="n">
         <v>22982.92572225885</v>
@@ -617,7 +617,7 @@
         <v>14909.10953297456</v>
       </c>
       <c r="G5" t="n">
-        <v>13364.40161589159</v>
+        <v>13364.13433663062</v>
       </c>
       <c r="H5" t="n">
         <v>14908.6801686659</v>
@@ -653,7 +653,7 @@
         <v>0.5837217448411384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4780660588796932</v>
+        <v>0.4854997550978752</v>
       </c>
       <c r="H6" t="n">
         <v>0.5836682062969287</v>
@@ -689,7 +689,7 @@
         <v>0.5974124791765755</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4650212147100217</v>
+        <v>0.4653017991301022</v>
       </c>
       <c r="H7" t="n">
         <v>0.5975320405078098</v>
@@ -725,7 +725,7 @@
         <v>0.5745665827421106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5204686963425699</v>
+        <v>0.5197513536697246</v>
       </c>
       <c r="H8" t="n">
         <v>0.5754045419685526</v>
@@ -761,7 +761,7 @@
         <v>0.6198205884132394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5627821528904592</v>
+        <v>0.5518221880778028</v>
       </c>
       <c r="H9" t="n">
         <v>0.6197933833524213</v>
@@ -797,7 +797,7 @@
         <v>0.5225715638388778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4193811230027325</v>
+        <v>0.3968524202367871</v>
       </c>
       <c r="H10" t="n">
         <v>0.5225611130361335</v>
@@ -833,7 +833,7 @@
         <v>0.5171512165180602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.556761184322085</v>
+        <v>0.5560700206533264</v>
       </c>
       <c r="H11" t="n">
         <v>0.5171121148925037</v>
@@ -869,7 +869,7 @@
         <v>0.5235109048734028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4063527249827822</v>
+        <v>0.4058824691153337</v>
       </c>
       <c r="H12" t="n">
         <v>0.52357654302484</v>
@@ -905,7 +905,7 @@
         <v>0.5322251939238014</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5171438863374631</v>
+        <v>0.5411544319913155</v>
       </c>
       <c r="H13" t="n">
         <v>0.5320037031368519</v>

--- a/M_results.xlsx
+++ b/M_results.xlsx
@@ -509,7 +509,7 @@
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>3433.634747468903</v>
+        <v>2974.769829392405</v>
       </c>
       <c r="H2" t="n">
         <v>18366.90918786444</v>
@@ -581,7 +581,7 @@
         <v>22988.18357483107</v>
       </c>
       <c r="G4" t="n">
-        <v>10878.46756592403</v>
+        <v>10892.8757319292</v>
       </c>
       <c r="H4" t="n">
         <v>22982.92572225885</v>
@@ -617,7 +617,7 @@
         <v>14909.10953297456</v>
       </c>
       <c r="G5" t="n">
-        <v>13364.13433663062</v>
+        <v>14414.62280778821</v>
       </c>
       <c r="H5" t="n">
         <v>14908.6801686659</v>
@@ -653,7 +653,7 @@
         <v>0.5837217448411384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4854997550978752</v>
+        <v>0.4784345194989783</v>
       </c>
       <c r="H6" t="n">
         <v>0.5836682062969287</v>
@@ -725,7 +725,7 @@
         <v>0.5745665827421106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5197513536697246</v>
+        <v>0.5207484758709566</v>
       </c>
       <c r="H8" t="n">
         <v>0.5754045419685526</v>
@@ -761,7 +761,7 @@
         <v>0.6198205884132394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5518221880778028</v>
+        <v>0.5604348830544731</v>
       </c>
       <c r="H9" t="n">
         <v>0.6197933833524213</v>
@@ -797,7 +797,7 @@
         <v>0.5225715638388778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3968524202367871</v>
+        <v>0.4157836489644302</v>
       </c>
       <c r="H10" t="n">
         <v>0.5225611130361335</v>
@@ -869,7 +869,7 @@
         <v>0.5235109048734028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4058824691153337</v>
+        <v>0.4063563102698645</v>
       </c>
       <c r="H12" t="n">
         <v>0.52357654302484</v>
@@ -905,7 +905,7 @@
         <v>0.5322251939238014</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5411544319913155</v>
+        <v>0.5444396508305743</v>
       </c>
       <c r="H13" t="n">
         <v>0.5320037031368519</v>
